--- a/biology/Zoologie/Giovanni_Cobelli/Giovanni_Cobelli.xlsx
+++ b/biology/Zoologie/Giovanni_Cobelli/Giovanni_Cobelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni (de) Cobelli (né le 24 juin 1849 à Rovereto, Trentin et mort le 22 janvier 1937 dans cette même ville) est un enseignant et un naturaliste amateur italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à Rovereto, Giovanni Cobelli part pour Vienne afin d'y étudier l’histoire naturelle. De retour dans sa ville natale, il enseigne à l’institut technique, fonction qu’il occupe jusqu’en 1902. Il dirige, de 1879 à 1937, le muséum de la ville. Il collabore avec son frère aîné, Ruggero Cobelli (1838-1921), à diverses recherches sur l’histoire naturelle, principalement en entomologie. Il travaille également avec l’entomologiste Bernardino Halbherr (1844-1934).
 </t>
